--- a/data/trans_bre/P2A_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P2A_R-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>6.48158169841424</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1.637737011724621</v>
+        <v>1.637737011724605</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1354593988544519</v>
@@ -649,7 +649,7 @@
         <v>0.1409971082577337</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.04350563124308902</v>
+        <v>0.04350563124308857</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.766043172008845</v>
+        <v>-1.377512505797749</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.10880320500298</v>
+        <v>-4.737337747112507</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.370250651841841</v>
+        <v>-0.6508186426093624</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.13547357494688</v>
+        <v>-4.021718609588681</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.03340439004968929</v>
+        <v>-0.02995619620657875</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1058342907554536</v>
+        <v>-0.09094352337251352</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.02650553778173875</v>
+        <v>-0.01431875400909809</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1006095784728764</v>
+        <v>-0.0992682822781029</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.31207505728605</v>
+        <v>14.11741140290206</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.20807209194405</v>
+        <v>10.85147090951175</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13.24722346692248</v>
+        <v>14.56354214125037</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.960864642056363</v>
+        <v>6.995965104971484</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3240829792239447</v>
+        <v>0.3305098171668234</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2115288459863682</v>
+        <v>0.2293492199721084</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.317587137367725</v>
+        <v>0.3396749982854063</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.2240192992169728</v>
+        <v>0.2041149258983617</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>1.861536634653005</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.630858591944551</v>
+        <v>1.630858591944556</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.168359217676888</v>
@@ -749,7 +749,7 @@
         <v>0.03770151668563481</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.04750458343825548</v>
+        <v>0.04750458343825566</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8141172253778417</v>
+        <v>0.8561958908962858</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.496324411882851</v>
+        <v>1.088905434967818</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-5.989018862477976</v>
+        <v>-5.086945159854362</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-4.516440452004939</v>
+        <v>-4.871823836128893</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.01589098364223028</v>
+        <v>0.01728171969241655</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02521847399181984</v>
+        <v>0.02101779859182185</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1112961389824894</v>
+        <v>-0.09707545855723997</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1201896241971896</v>
+        <v>-0.1277836719746282</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>15.68439005726879</v>
+        <v>15.14761671829596</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>15.56418796901118</v>
+        <v>15.99163154431368</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8.559217163483018</v>
+        <v>9.83926107420446</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.378973650478089</v>
+        <v>7.900659132157245</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.360384102303714</v>
+        <v>0.3462668047204052</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3130626297027065</v>
+        <v>0.3248118360540976</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1880549897701097</v>
+        <v>0.2155974307841589</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2286137729651584</v>
+        <v>0.2670915363292877</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>7.746813331025937</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10.87701020609597</v>
+        <v>10.87701020609598</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2757657973691482</v>
@@ -849,7 +849,7 @@
         <v>0.1320553458321214</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.275425530163556</v>
+        <v>0.2754255301635563</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.835862256363868</v>
+        <v>5.250868285795043</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.812588081438101</v>
+        <v>4.632470744843562</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.8918979434550665</v>
+        <v>-0.7765855698311432</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.217823266610527</v>
+        <v>3.467972929092754</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.08953350474087407</v>
+        <v>0.1034449720047554</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07702459597544126</v>
+        <v>0.07475962072662334</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.01451102926417038</v>
+        <v>-0.01246924628370572</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.07415854100693323</v>
+        <v>0.0788408619211404</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>22.5119281289084</v>
+        <v>22.44411975405446</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>18.93658584597231</v>
+        <v>17.96006915305415</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16.48832714055363</v>
+        <v>16.46032227419188</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18.68597035544483</v>
+        <v>18.4967432351444</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4838233156998411</v>
+        <v>0.477931246766936</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3293491562292344</v>
+        <v>0.317465045783584</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2957170954720676</v>
+        <v>0.2946098804369108</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.5156118677949659</v>
+        <v>0.5173551477274091</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>1.598997929774437</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-0.3796245871935111</v>
+        <v>-0.3796245871935167</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1747808167828746</v>
@@ -949,7 +949,7 @@
         <v>0.02910661620568354</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.008853836138041851</v>
+        <v>-0.008853836138041979</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>4.547522690544622</v>
+        <v>4.354980414589625</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.421506536297365</v>
+        <v>1.736223654148415</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.995171736991407</v>
+        <v>-3.191967300364228</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-4.358426967812677</v>
+        <v>-4.79173732743443</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.08443324000625749</v>
+        <v>0.08116669196278681</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.023211498654326</v>
+        <v>0.03045943159354838</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.05331241731349537</v>
+        <v>-0.05566879182033367</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.0950321140760062</v>
+        <v>-0.1069107713843878</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>13.23681945242792</v>
+        <v>13.32746528104294</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>10.845011483233</v>
+        <v>10.96203338588979</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.701701012775679</v>
+        <v>5.911308280952312</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.105629313825645</v>
+        <v>4.114276473174326</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2562835399262486</v>
+        <v>0.2619563682924112</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1900074711433462</v>
+        <v>0.1943066776717842</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1071009092905952</v>
+        <v>0.1161653023206033</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1005603252684541</v>
+        <v>0.1011750224768375</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>16.77509844777857</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9.196528906128743</v>
+        <v>9.196528906128759</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2342241631488667</v>
@@ -1049,7 +1049,7 @@
         <v>0.2965094073252564</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.2093176865226652</v>
+        <v>0.2093176865226657</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.705682263982768</v>
+        <v>5.531544119576463</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>10.11013934701076</v>
+        <v>10.27483627024753</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11.75233663869991</v>
+        <v>11.91797713794266</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.468014337260281</v>
+        <v>3.820688751886859</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.09694502187989211</v>
+        <v>0.09833755422662993</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1634436526931279</v>
+        <v>0.1627054820120652</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2016934602769778</v>
+        <v>0.2026030933828356</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.072339506502841</v>
+        <v>0.07880786543234705</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>18.68928549729855</v>
+        <v>18.79234888406654</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>21.60140277966704</v>
+        <v>21.45374561249653</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>21.96140592999257</v>
+        <v>22.2448771548655</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14.37893292792992</v>
+        <v>14.53997528676036</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3879619898195301</v>
+        <v>0.3892456279434133</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3924019305723283</v>
+        <v>0.3875053868361972</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4151231274913103</v>
+        <v>0.4213384090508012</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.3566837798814719</v>
+        <v>0.3654684987827053</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>34.96239809081102</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>26.57706933776076</v>
+        <v>26.57706933776077</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>1.55870786483858</v>
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>36.96046671140039</v>
+        <v>36.9790628238818</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>29.31909235318377</v>
+        <v>28.7276044139385</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>27.7890679758623</v>
+        <v>28.87467952202719</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>17.12196083905294</v>
+        <v>15.88744297772256</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>1.141270890065426</v>
+        <v>1.167657395239611</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6575403561693338</v>
+        <v>0.6523244975369366</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6945465621097937</v>
+        <v>0.7241230947323282</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.5028901924039221</v>
+        <v>0.4718137991517504</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>48.89141416705026</v>
+        <v>48.56904358040395</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>42.54602670488315</v>
+        <v>42.14676443626797</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>41.00095403251373</v>
+        <v>41.57492677744246</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>35.63749829311485</v>
+        <v>34.39501655795299</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.167602008877135</v>
+        <v>2.178082117403607</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.307705125624534</v>
+        <v>1.279970427707817</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.385757333163123</v>
+        <v>1.424022285900171</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.047429253268622</v>
+        <v>1.939271098386995</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>13.17996912879162</v>
+        <v>13.52397596154033</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>10.87634564247265</v>
+        <v>11.30077458547459</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>8.737112272741907</v>
+        <v>8.916404958443261</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4.783635570910786</v>
+        <v>4.672923729286673</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2646450871650663</v>
+        <v>0.2739162785140911</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1915475765764945</v>
+        <v>0.1985925285678296</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1635735397937589</v>
+        <v>0.1651989879080634</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.1178150637512552</v>
+        <v>0.1157588286467304</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>17.98044956602087</v>
+        <v>18.16683206833336</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>15.74500056402692</v>
+        <v>15.86173220069517</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>13.53079446402682</v>
+        <v>13.54783110327547</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.253631937965668</v>
+        <v>9.416791420005215</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.3843210779843865</v>
+        <v>0.3899615878841484</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2904632032668883</v>
+        <v>0.291358754743898</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2656747734733068</v>
+        <v>0.2639139838953332</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.2439964690849482</v>
+        <v>0.248280743060287</v>
       </c>
     </row>
     <row r="25">
